--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2341860.855855838</v>
+        <v>-2344597.168877073</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>196.5501500659891</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>101.5276397927853</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>62.70773077145411</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -874,16 +874,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>63.69001051091617</v>
+        <v>104.4102276840694</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>196.6997841156786</v>
       </c>
       <c r="Y5" t="n">
-        <v>219.5711540783794</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>274.816346182513</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>193.5534233013599</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>164.8097755779796</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>265.8459650803264</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>146.8297265471825</v>
       </c>
       <c r="H10" t="n">
-        <v>34.15392480244383</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>42.53134576113546</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>14.76058440587543</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>121.8000472740347</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>66.09841665934233</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.0347892581641</v>
+        <v>98.72106119200248</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,13 +2479,13 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D25" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E25" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F25" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G25" t="n">
         <v>141.2394908002291</v>
@@ -2494,7 +2494,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652609</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S25" t="n">
         <v>156.7416385096049</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,7 +2716,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545295</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2767,7 +2767,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,7 +2953,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3317,10 +3317,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4150,7 +4150,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
         <v>56.98118882652581</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>420.2093035084148</v>
+        <v>1148.907795281707</v>
       </c>
       <c r="C2" t="n">
-        <v>51.24678656800311</v>
+        <v>779.9452783412949</v>
       </c>
       <c r="D2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="E2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="F2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4358,22 +4358,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.949738926589</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W2" t="n">
-        <v>1570.414233809428</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X2" t="n">
-        <v>1196.948475548348</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y2" t="n">
-        <v>806.8091435725366</v>
+        <v>1148.907795281707</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,25 +4410,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495379</v>
+        <v>979.6730931919908</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219.2332512597245</v>
+        <v>412.61766175612</v>
       </c>
       <c r="C4" t="n">
-        <v>219.2332512597245</v>
+        <v>412.61766175612</v>
       </c>
       <c r="D4" t="n">
-        <v>219.2332512597245</v>
+        <v>262.5010223437843</v>
       </c>
       <c r="E4" t="n">
-        <v>219.2332512597245</v>
+        <v>114.5879287613911</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
         <v>51.24678656800311</v>
@@ -4486,7 +4486,7 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4495,7 +4495,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4507,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1021.765895288653</v>
+        <v>927.720553932932</v>
       </c>
       <c r="V4" t="n">
-        <v>957.4325513382325</v>
+        <v>822.2556774843771</v>
       </c>
       <c r="W4" t="n">
-        <v>668.015381301272</v>
+        <v>822.2556774843771</v>
       </c>
       <c r="X4" t="n">
-        <v>440.0258304032546</v>
+        <v>594.2661265863597</v>
       </c>
       <c r="Y4" t="n">
-        <v>219.2332512597245</v>
+        <v>594.2661265863597</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1302.576789404184</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C5" t="n">
-        <v>1302.576789404184</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D5" t="n">
-        <v>944.3110907974335</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>1897.831592188879</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>1897.831592188879</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X5" t="n">
-        <v>1524.365833927799</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="Y5" t="n">
-        <v>1302.576789404184</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M6" t="n">
-        <v>1178.376567084329</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1565.661695681274</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>515.8852429786115</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="C7" t="n">
-        <v>515.8852429786115</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D7" t="n">
-        <v>515.8852429786115</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E7" t="n">
-        <v>367.9721493962184</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1033.291963913589</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V7" t="n">
-        <v>1033.291963913589</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W7" t="n">
-        <v>743.8747938766288</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="X7" t="n">
-        <v>515.8852429786115</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="Y7" t="n">
-        <v>515.8852429786115</v>
+        <v>918.7469765594642</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1323.273454230226</v>
+        <v>1524.3658339278</v>
       </c>
       <c r="C8" t="n">
-        <v>1323.273454230226</v>
+        <v>1155.403316987388</v>
       </c>
       <c r="D8" t="n">
-        <v>1323.273454230226</v>
+        <v>797.1376183806378</v>
       </c>
       <c r="E8" t="n">
-        <v>937.4852016319819</v>
+        <v>797.1376183806378</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>386.1517135910303</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4808,10 +4808,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.01262627016</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V8" t="n">
-        <v>2100.01262627016</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W8" t="n">
-        <v>2100.01262627016</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="X8" t="n">
-        <v>2100.01262627016</v>
+        <v>1524.3658339278</v>
       </c>
       <c r="Y8" t="n">
-        <v>1709.873294294348</v>
+        <v>1524.3658339278</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
         <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
         <v>302.1446891756898</v>
@@ -4875,7 +4875,7 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
@@ -4890,19 +4890,19 @@
         <v>717.8525085495379</v>
       </c>
       <c r="M9" t="n">
-        <v>1178.376567084328</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1565.661695681274</v>
+        <v>1715.293511287797</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>2047.363946463959</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2294.546680296256</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.8623399222013</v>
+        <v>962.1544032232072</v>
       </c>
       <c r="C10" t="n">
-        <v>235.8623399222013</v>
+        <v>793.2182202953003</v>
       </c>
       <c r="D10" t="n">
-        <v>85.74570050986557</v>
+        <v>643.1015808829645</v>
       </c>
       <c r="E10" t="n">
-        <v>85.74570050986557</v>
+        <v>495.1884873005714</v>
       </c>
       <c r="F10" t="n">
-        <v>85.74570050986557</v>
+        <v>348.298539802661</v>
       </c>
       <c r="G10" t="n">
-        <v>85.74570050986557</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
         <v>51.24678656800311</v>
@@ -4993,19 +4993,19 @@
         <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>927.7205539329318</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V10" t="n">
-        <v>927.7205539329318</v>
+        <v>962.1544032232072</v>
       </c>
       <c r="W10" t="n">
-        <v>638.3033838959711</v>
+        <v>962.1544032232072</v>
       </c>
       <c r="X10" t="n">
-        <v>638.3033838959711</v>
+        <v>962.1544032232072</v>
       </c>
       <c r="Y10" t="n">
-        <v>417.510804752441</v>
+        <v>962.1544032232072</v>
       </c>
     </row>
     <row r="11">
@@ -5021,43 +5021,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1552.432392194325</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O12" t="n">
-        <v>2104.342122433612</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2527.96527192868</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>788.0191461778176</v>
+        <v>696.7084350851653</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>527.7722521572584</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782941</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038328</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179773</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855602</v>
       </c>
       <c r="U13" t="n">
-        <v>1962.551399292452</v>
+        <v>1871.2406881998</v>
       </c>
       <c r="V13" t="n">
-        <v>1707.866911086565</v>
+        <v>1616.556199993913</v>
       </c>
       <c r="W13" t="n">
-        <v>1418.449741049605</v>
+        <v>1327.139029956953</v>
       </c>
       <c r="X13" t="n">
-        <v>1190.460190151587</v>
+        <v>1099.149479058935</v>
       </c>
       <c r="Y13" t="n">
-        <v>969.6676110080573</v>
+        <v>878.3568999154051</v>
       </c>
     </row>
     <row r="14">
@@ -5273,7 +5273,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5285,10 +5285,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5355,28 +5355,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961525</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.652278938886</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277355</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1910.695003076829</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1656.010514870942</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1366.593344833982</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1138.603793935964</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5595,22 +5595,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.0655846733346</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C22" t="n">
-        <v>411.1294017454277</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5953,7 +5953,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>761.7140495035743</v>
+        <v>816.5764010855557</v>
       </c>
     </row>
     <row r="23">
@@ -5969,40 +5969,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6133,13 +6133,13 @@
         <v>533.5814564942658</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H25" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,13 +6300,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6315,16 +6315,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6406,10 +6406,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6473,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>671.2000270096656</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6601,43 +6601,43 @@
         <v>782.5512955656814</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942652</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954154</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380735</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311331</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656415</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
         <v>2639.297491717215</v>
@@ -6646,7 +6646,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
         <v>1483.79828551875</v>
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6877,10 +6877,10 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547835</v>
@@ -6892,10 +6892,10 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
         <v>1280.33868158239</v>
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,13 +6956,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580113</v>
@@ -7087,31 +7087,31 @@
         <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7126,16 +7126,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
         <v>656.9646031150022</v>
@@ -7318,7 +7318,7 @@
         <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345473</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7363,7 +7363,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7491,25 +7491,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2978.493192213312</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>2834.086956247062</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>2708.500263796382</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>2585.117117175645</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>2462.757116639391</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>2320.090964315927</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>2202.909080119781</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>2145.352323729351</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2249.630143176794</v>
+        <v>198.0944824954143</v>
       </c>
       <c r="K43" t="n">
-        <v>2535.361206719452</v>
+        <v>483.8255460380722</v>
       </c>
       <c r="L43" t="n">
-        <v>2949.801601912512</v>
+        <v>898.2659412311316</v>
       </c>
       <c r="M43" t="n">
-        <v>3395.853105660665</v>
+        <v>1344.317444979285</v>
       </c>
       <c r="N43" t="n">
-        <v>3837.304778337793</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O43" t="n">
-        <v>4230.875860063898</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P43" t="n">
-        <v>4547.593116654574</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>4648.317395612653</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>4489.992508229214</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>4294.920990213811</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>4030.375710519666</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>3800.221169275435</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>3535.33394620013</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>3331.874342263769</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>3135.611710081896</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>315.9123021921482</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319315</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656809</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150015</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942647</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580106</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345468</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,10 +7804,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7828,28 +7828,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>114.3555089013345</v>
       </c>
       <c r="N3" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,28 +8295,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>224.3355197601779</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039159</v>
+        <v>54.95314511566465</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8538,22 +8538,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>98.24448441976801</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>129.4330134067482</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>-1.043441133895299e-12</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>340.5389251356816</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22562,7 +22562,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>152.6908186514239</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>284.7102988632683</v>
       </c>
     </row>
     <row r="3">
@@ -22705,25 +22705,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>82.71331725147714</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>188.4476328129118</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>106.0841272570769</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>271.4238899833687</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>24.63391537253447</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>220.0860577299018</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>119.4047645948081</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>65.54986409393069</v>
+        <v>119.8635921600923</v>
       </c>
     </row>
     <row r="23">
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-3.785860641657541e-13</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1093294.694058887</v>
+        <v>1093294.694058888</v>
       </c>
     </row>
     <row r="3">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31766.15265272275</v>
+        <v>31766.15265272277</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.0884932142</v>
       </c>
       <c r="D2" t="n">
-        <v>41052.0884932142</v>
+        <v>41052.08849321421</v>
       </c>
       <c r="E2" t="n">
-        <v>40357.3299845003</v>
+        <v>40357.32998450031</v>
       </c>
       <c r="F2" t="n">
-        <v>40357.32998450032</v>
+        <v>40357.32998450029</v>
       </c>
       <c r="G2" t="n">
         <v>40357.32998450031</v>
@@ -26335,25 +26335,25 @@
         <v>41052.0884932142</v>
       </c>
       <c r="J2" t="n">
-        <v>41052.0884932142</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="K2" t="n">
+        <v>41052.08849321417</v>
+      </c>
+      <c r="L2" t="n">
         <v>41052.08849321419</v>
-      </c>
-      <c r="L2" t="n">
-        <v>41052.0884932142</v>
       </c>
       <c r="M2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="N2" t="n">
+        <v>41052.0884932142</v>
+      </c>
+      <c r="O2" t="n">
+        <v>41052.08849321418</v>
+      </c>
+      <c r="P2" t="n">
         <v>41052.08849321419</v>
-      </c>
-      <c r="O2" t="n">
-        <v>41052.08849321419</v>
-      </c>
-      <c r="P2" t="n">
-        <v>41052.0884932142</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363182</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099825</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363179</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27111.73467492335</v>
+        <v>27111.73467492341</v>
       </c>
       <c r="C4" t="n">
         <v>133113.8635467443</v>
@@ -26430,31 +26430,31 @@
         <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.36846171969</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719676</v>
       </c>
       <c r="I4" t="n">
-        <v>15498.22772481312</v>
+        <v>15498.22772481315</v>
       </c>
       <c r="J4" t="n">
-        <v>15498.22772481313</v>
+        <v>15498.22772481314</v>
       </c>
       <c r="K4" t="n">
-        <v>15498.2277248131</v>
+        <v>15498.22772481314</v>
       </c>
       <c r="L4" t="n">
         <v>15498.22772481312</v>
       </c>
       <c r="M4" t="n">
-        <v>15498.22772481316</v>
+        <v>15498.22772481314</v>
       </c>
       <c r="N4" t="n">
+        <v>15498.22772481313</v>
+      </c>
+      <c r="O4" t="n">
         <v>15498.22772481314</v>
-      </c>
-      <c r="O4" t="n">
-        <v>15498.22772481315</v>
       </c>
       <c r="P4" t="n">
         <v>15498.22772481314</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1203035.138037965</v>
+        <v>-1203499.43482999</v>
       </c>
       <c r="C6" t="n">
         <v>-184999.5474933748</v>
@@ -26528,40 +26528,40 @@
         <v>-184999.5474933748</v>
       </c>
       <c r="E6" t="n">
-        <v>-575758.0099256722</v>
+        <v>-575792.747851108</v>
       </c>
       <c r="F6" t="n">
-        <v>-68272.56830112646</v>
+        <v>-68307.30622656218</v>
       </c>
       <c r="G6" t="n">
-        <v>-68272.56830112649</v>
+        <v>-68307.30622656216</v>
       </c>
       <c r="H6" t="n">
-        <v>-68272.56830112648</v>
+        <v>-68307.30622656214</v>
       </c>
       <c r="I6" t="n">
-        <v>-97037.97307914608</v>
+        <v>-97037.97307914616</v>
       </c>
       <c r="J6" t="n">
         <v>-245215.4328954969</v>
       </c>
       <c r="K6" t="n">
-        <v>-77610.25508551432</v>
+        <v>-77610.25508551436</v>
       </c>
       <c r="L6" t="n">
-        <v>-77610.25508551432</v>
+        <v>-77610.25508551431</v>
       </c>
       <c r="M6" t="n">
         <v>-210217.548814441</v>
       </c>
       <c r="N6" t="n">
-        <v>-97037.97307914615</v>
+        <v>-97037.97307914612</v>
       </c>
       <c r="O6" t="n">
-        <v>-77610.25508551431</v>
+        <v>-77610.25508551436</v>
       </c>
       <c r="P6" t="n">
-        <v>-77610.25508551433</v>
+        <v>-77610.25508551435</v>
       </c>
     </row>
   </sheetData>
@@ -26704,25 +26704,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203968</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="N2" t="n">
-        <v>24.28464749203974</v>
-      </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203972</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175394</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175393</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175393</v>
@@ -26790,7 +26790,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41.39144493658017</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,10 +27594,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>147.7274156397586</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>173.0313165627905</v>
       </c>
       <c r="Y5" t="n">
-        <v>166.6667845776742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>11.41080793868758</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>25.03123005073488</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>242.0662701637319</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>145.7017376926275</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>19.47687349762171</v>
       </c>
       <c r="H10" t="n">
-        <v>113.097584352685</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28065,19 +28065,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="32">
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724557</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>165.3312853305619</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,16 +32075,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>324.9782573297445</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>508.8976500257891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32096,10 +32096,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32248,7 +32248,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
         <v>790.8204499236507</v>
@@ -32315,16 +32315,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>336.3457189021236</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,7 +32333,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,25 +32555,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,19 +32789,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>407.217739120397</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,16 +32810,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>320.9147064709962</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>382.6869096644257</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>638.0665277849409</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33667,7 +33667,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460027</v>
@@ -33731,28 +33731,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>669.5976799347666</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33971,7 +33971,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,13 +33980,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>558.375963895806</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33995,7 +33995,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34211,28 +34211,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>577.7447198439388</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34445,13 +34445,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>360.3952288121461</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,16 +34778,16 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>481.2868411833751</v>
       </c>
       <c r="N3" t="n">
-        <v>584.5244463807089</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
         <v>335.4246819961231</v>
@@ -34796,10 +34796,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>591.2668520422184</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000389</v>
+        <v>390.3778271117877</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35258,22 +35258,22 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>465.1758167018086</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>245.9137357376028</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>25.34951124454038</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295172</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35665,7 +35665,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,16 +35723,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>187.1368183553855</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>366.7636161037707</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35744,10 +35744,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35963,16 +35963,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>205.0040068187903</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,7 +35981,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396405</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,16 +36440,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>265.0837051983787</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36522,13 +36522,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M25" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N25" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O25" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P25" t="n">
         <v>319.9164207986647</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>189.5729943876629</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36759,13 +36759,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>244.1325298845515</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>506.7248157016076</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
@@ -37242,7 +37242,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q34" t="n">
         <v>144.686904791938</v>
@@ -37315,7 +37315,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>527.4636460127483</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,13 +37464,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
         <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37619,7 +37619,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,13 +37628,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>416.2419299737876</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>439.1903400640646</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>222.5537898377871</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
